--- a/Income/ADP_inc.xlsx
+++ b/Income/ADP_inc.xlsx
@@ -2182,16 +2182,16 @@
         <v>0.459</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.4595</v>
+        <v>0.4499</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.45</v>
+        <v>0.4404</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.4491</v>
+        <v>0.4395</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.4409</v>
+        <v>0.4312</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.4307</v>
@@ -2439,7 +2439,7 @@
         <v>0.2203</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.2182</v>
+        <v>0.2181</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0.2236</v>
@@ -2569,7 +2569,7 @@
         <v>0.1691</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.1723</v>
+        <v>0.1722</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0.1702</v>
@@ -3065,7 +3065,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>5.7627</v>
+        <v>5.7583</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>5.7683</v>
@@ -3077,7 +3077,7 @@
         <v>5.7002</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>5.8324</v>
+        <v>5.8413</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>5.6576</v>
@@ -4233,16 +4233,16 @@
         <v>0.2517</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.2516</v>
+        <v>0.2685</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.2645</v>
+        <v>0.2813</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.2827</v>
+        <v>0.2994</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.2971</v>
+        <v>0.3141</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.3106</v>
@@ -4363,7 +4363,7 @@
         <v>0.2112</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.2074</v>
+        <v>0.2075</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>0.203</v>
